--- a/public/import/templates/导入模板_产品检验标准.xlsx
+++ b/public/import/templates/导入模板_产品检验标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="9675" activeTab="1"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="导入检验标准" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>不合格分类(必填)</t>
   </si>
   <si>
-    <t>检验业务类型</t>
+    <t>检验业务类型(必填)</t>
   </si>
   <si>
     <t>检验属性(必填)</t>
@@ -750,11 +750,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1288,21 +1294,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.6272727272727" customWidth="1"/>
+    <col min="2" max="2" width="14.8727272727273" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="14.625" customWidth="1"/>
+    <col min="4" max="5" width="14.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="16.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,6 +1324,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,27 +1343,27 @@
   <sheetPr/>
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="12" width="8.875" customWidth="1"/>
-    <col min="13" max="13" width="5.125" customWidth="1"/>
-    <col min="14" max="15" width="8.875" customWidth="1"/>
+    <col min="1" max="4" width="14.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="18.7545454545455" customWidth="1"/>
+    <col min="6" max="6" width="14.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="21.2545454545455" customWidth="1"/>
+    <col min="8" max="8" width="16.6272727272727" customWidth="1"/>
+    <col min="9" max="9" width="12.8727272727273" customWidth="1"/>
+    <col min="10" max="10" width="14.6272727272727" customWidth="1"/>
+    <col min="11" max="12" width="8.87272727272727" customWidth="1"/>
+    <col min="13" max="13" width="5.12727272727273" customWidth="1"/>
+    <col min="14" max="15" width="8.87272727272727" customWidth="1"/>
     <col min="16" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:19">
+    <row r="1" ht="16.5" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
